--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/HAWAII_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/HAWAII_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -716,7 +716,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C27">
@@ -874,7 +874,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C36">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C45">
@@ -1014,7 +1014,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C46">
@@ -1066,7 +1066,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C50">
@@ -1118,7 +1118,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C54">
@@ -1144,7 +1144,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C56">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C79">
@@ -1476,7 +1476,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C80">
@@ -1541,7 +1541,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C85">
@@ -1650,7 +1650,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C93">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C95">
@@ -1958,76 +1958,6 @@
       </c>
       <c r="D113">
         <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/HAWAII_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/HAWAII_2017.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -592,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -675,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -688,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Topia</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -732,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Ozumba</t>
@@ -745,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Tultepec</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -885,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -898,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -911,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Huamuxtitlán</t>
@@ -924,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -937,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -968,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -981,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1012,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Atotonilco El Alto</t>
@@ -1025,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>El Salto</t>
@@ -1038,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1051,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Juanacatlán</t>
@@ -1064,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>La Manzanilla De La Paz</t>
@@ -1077,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -1090,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Mazamitla</t>
@@ -1103,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -1116,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>San Cristóbal De La Barranca</t>
@@ -1129,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -1142,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -1155,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1168,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Zapotiltic</t>
@@ -1181,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1212,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Apatzingán</t>
@@ -1225,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -1238,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Indaparapeo</t>
@@ -1251,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -1264,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -1277,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -1290,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Salvador Escalante</t>
@@ -1303,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -1316,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1329,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1360,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1391,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -1404,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Ruíz</t>
@@ -1417,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -1430,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1443,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1474,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Constancia Del Rosario</t>
@@ -1487,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>San Andrés Cabecera Nueva</t>
@@ -1500,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>San Esteban Atatlahuca</t>
@@ -1513,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>San Juan Cieneguilla</t>
@@ -1526,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>San Martín Tilcajete</t>
@@ -1539,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>San Miguel El Grande</t>
@@ -1552,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -1565,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Santiago Amoltepec</t>
@@ -1578,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Santo Tomás Ocotepec</t>
@@ -1591,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1622,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1635,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -1648,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -1661,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1692,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1723,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1754,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -1767,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1798,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1829,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1860,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1891,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Panotla</t>
@@ -1904,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1935,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Total</t>
